--- a/templates/AutomationOrg/RSTK-9521-Consigned WO.xlsx
+++ b/templates/AutomationOrg/RSTK-9521-Consigned WO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75A2D17-79B4-4E56-B34C-05D53F5D5F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC4BEB0-E901-4922-AD2F-425C833E5838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="99">
   <si>
     <t>Site</t>
   </si>
@@ -164,12 +164,6 @@
   </si>
   <si>
     <t>Txn Comment</t>
-  </si>
-  <si>
-    <t>Reverse 3</t>
-  </si>
-  <si>
-    <t>Reverse 2</t>
   </si>
   <si>
     <t>Employee</t>
@@ -731,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -787,36 +781,36 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -831,15 +825,15 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -854,15 +848,15 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -877,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -924,105 +918,105 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" t="s">
-        <v>76</v>
-      </c>
       <c r="O1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" t="s">
         <v>79</v>
       </c>
-      <c r="P1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>81</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
         <v>85</v>
       </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>87</v>
-      </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1030,49 +1024,49 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1080,49 +1074,49 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
         <v>85</v>
       </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1137,10 +1131,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8AA5-AAA5-4969-B3C7-F881B91DE17C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,7 +1204,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1239,7 +1233,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1268,13 +1262,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -1294,13 +1288,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -1323,22 +1317,22 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5">
-        <v>44537</v>
-      </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="b">
-        <v>1</v>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
       </c>
       <c r="N6" t="s">
         <v>25</v>
@@ -1351,9 +1345,6 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1361,13 +1352,13 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
-        <v>23</v>
+      <c r="L7">
+        <v>5</v>
       </c>
       <c r="N7" t="s">
         <v>25</v>
@@ -1378,22 +1369,25 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D8" s="5">
+        <v>44537</v>
+      </c>
       <c r="E8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
       </c>
       <c r="N8" t="s">
         <v>25</v>
@@ -1404,22 +1398,25 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>2</v>
+      <c r="M9" t="s">
+        <v>23</v>
       </c>
       <c r="N9" t="s">
         <v>25</v>
@@ -1430,25 +1427,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5">
-        <v>44537</v>
-      </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
       </c>
       <c r="N10" t="s">
         <v>25</v>
@@ -1459,10 +1453,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>22</v>
@@ -1471,13 +1462,13 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>23</v>
+      <c r="L11">
+        <v>2</v>
       </c>
       <c r="N11" t="s">
         <v>25</v>
@@ -1488,22 +1479,25 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D12" s="5">
+        <v>44537</v>
+      </c>
       <c r="E12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
       </c>
       <c r="N12" t="s">
         <v>25</v>
@@ -1514,22 +1508,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>2</v>
+      <c r="M13" t="s">
+        <v>23</v>
       </c>
       <c r="N13" t="s">
         <v>25</v>
@@ -1540,25 +1537,22 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="5">
-        <v>44537</v>
-      </c>
       <c r="E14">
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
       </c>
       <c r="N14" t="s">
         <v>25</v>
@@ -1569,10 +1563,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>22</v>
@@ -1581,70 +1572,18 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
-      <c r="M15" t="s">
-        <v>23</v>
+      <c r="L15">
+        <v>2</v>
       </c>
       <c r="N15" t="s">
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1657,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B46C-917D-4769-9EED-CC4369AB85E4}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,22 +1650,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
         <v>39</v>
@@ -1743,16 +1682,16 @@
         <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
         <v>96</v>
       </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
         <v>39</v>
@@ -1763,22 +1702,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
         <v>39</v>
@@ -1789,56 +1728,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
         <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1850,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4834583-3C97-4830-AB3E-726B04898CE6}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1883,54 +1796,43 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
         <v>91</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1940,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64F68B-8B51-425D-AD6F-D9D782FBD866}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1957,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -1979,118 +1881,102 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17">
         <v>10</v>
       </c>
     </row>
@@ -2119,15 +2005,15 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2149,7 +2035,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2160,7 +2046,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>

--- a/templates/AutomationOrg/RSTK-9521-Consigned WO.xlsx
+++ b/templates/AutomationOrg/RSTK-9521-Consigned WO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC4BEB0-E901-4922-AD2F-425C833E5838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BE2D4D-7AAF-4595-B06A-B7D33DF9B806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,8 +1133,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1844,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64F68B-8B51-425D-AD6F-D9D782FBD866}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/templates/AutomationOrg/RSTK-9521-Consigned WO.xlsx
+++ b/templates/AutomationOrg/RSTK-9521-Consigned WO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BE2D4D-7AAF-4595-B06A-B7D33DF9B806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4764EDB2-F631-42AA-8914-AF21FECA7312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="A7:XFD7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,9 +1357,6 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
       <c r="N7" t="s">
         <v>25</v>
       </c>
@@ -1599,7 +1596,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="A4:XFD4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1844,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64F68B-8B51-425D-AD6F-D9D782FBD866}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1989,7 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EC26A-E704-4A02-9DEB-2216FF4892C8}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
